--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.346688666666667</v>
+        <v>2.502470333333333</v>
       </c>
       <c r="H2">
-        <v>10.040066</v>
+        <v>7.507410999999999</v>
       </c>
       <c r="I2">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="J2">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N2">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q2">
-        <v>6.321630502928667</v>
+        <v>0.5751227369473333</v>
       </c>
       <c r="R2">
-        <v>56.894674526358</v>
+        <v>5.176104632526</v>
       </c>
       <c r="S2">
-        <v>0.04638508970826854</v>
+        <v>0.007216169798542742</v>
       </c>
       <c r="T2">
-        <v>0.04638508970826854</v>
+        <v>0.007216169798542744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.346688666666667</v>
+        <v>2.502470333333333</v>
       </c>
       <c r="H3">
-        <v>10.040066</v>
+        <v>7.507410999999999</v>
       </c>
       <c r="I3">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="J3">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q3">
-        <v>3.638179671718889</v>
+        <v>2.720431328582777</v>
       </c>
       <c r="R3">
-        <v>32.74361704547</v>
+        <v>24.483881957245</v>
       </c>
       <c r="S3">
-        <v>0.0266952157942952</v>
+        <v>0.03413374768754145</v>
       </c>
       <c r="T3">
-        <v>0.0266952157942952</v>
+        <v>0.03413374768754145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.346688666666667</v>
+        <v>2.502470333333333</v>
       </c>
       <c r="H4">
-        <v>10.040066</v>
+        <v>7.507410999999999</v>
       </c>
       <c r="I4">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="J4">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N4">
         <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q4">
-        <v>3.929205487046445</v>
+        <v>2.938044480455888</v>
       </c>
       <c r="R4">
-        <v>35.36284938341799</v>
+        <v>26.44240032410299</v>
       </c>
       <c r="S4">
-        <v>0.02883062350993703</v>
+        <v>0.03686417956482652</v>
       </c>
       <c r="T4">
-        <v>0.02883062350993703</v>
+        <v>0.03686417956482653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>78.64939699999999</v>
       </c>
       <c r="I5">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="J5">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N5">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q5">
-        <v>49.52083254354567</v>
+        <v>6.025120572444666</v>
       </c>
       <c r="R5">
-        <v>445.687492891911</v>
+        <v>54.226085152002</v>
       </c>
       <c r="S5">
-        <v>0.3633600949780834</v>
+        <v>0.07559828592107161</v>
       </c>
       <c r="T5">
-        <v>0.3633600949780834</v>
+        <v>0.07559828592107162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>78.64939699999999</v>
       </c>
       <c r="I6">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="J6">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.261295</v>
       </c>
       <c r="O6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q6">
-        <v>28.49987613212389</v>
+        <v>28.49987613212388</v>
       </c>
       <c r="R6">
         <v>256.498885189115</v>
       </c>
       <c r="S6">
-        <v>0.2091184086843845</v>
+        <v>0.3575931400286036</v>
       </c>
       <c r="T6">
-        <v>0.2091184086843844</v>
+        <v>0.3575931400286036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>78.64939699999999</v>
       </c>
       <c r="I7">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="J7">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N7">
         <v>3.522173</v>
       </c>
       <c r="O7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q7">
-        <v>30.77964250885344</v>
+        <v>30.77964250885343</v>
       </c>
       <c r="R7">
-        <v>277.016782579681</v>
+        <v>277.0167825796809</v>
       </c>
       <c r="S7">
-        <v>0.2258462398743764</v>
+        <v>0.3861977842525643</v>
       </c>
       <c r="T7">
-        <v>0.2258462398743764</v>
+        <v>0.3861977842525644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.276195666666667</v>
+        <v>3.276195666666666</v>
       </c>
       <c r="H8">
-        <v>9.828587000000001</v>
+        <v>9.828586999999999</v>
       </c>
       <c r="I8">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="J8">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N8">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q8">
-        <v>6.188474794875667</v>
+        <v>0.7529418405046666</v>
       </c>
       <c r="R8">
-        <v>55.69627315388101</v>
+        <v>6.776476564542</v>
       </c>
       <c r="S8">
-        <v>0.04540805704868096</v>
+        <v>0.009447298499009819</v>
       </c>
       <c r="T8">
-        <v>0.04540805704868096</v>
+        <v>0.009447298499009821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.276195666666667</v>
+        <v>3.276195666666666</v>
       </c>
       <c r="H9">
-        <v>9.828587000000001</v>
+        <v>9.828586999999999</v>
       </c>
       <c r="I9">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="J9">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.261295</v>
       </c>
       <c r="O9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q9">
-        <v>3.561546848907223</v>
+        <v>3.561546848907222</v>
       </c>
       <c r="R9">
-        <v>32.05392164016501</v>
+        <v>32.05392164016499</v>
       </c>
       <c r="S9">
-        <v>0.02613292093079912</v>
+        <v>0.04468737741720147</v>
       </c>
       <c r="T9">
-        <v>0.02613292093079911</v>
+        <v>0.04468737741720147</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.276195666666667</v>
+        <v>3.276195666666666</v>
       </c>
       <c r="H10">
-        <v>9.828587000000001</v>
+        <v>9.828586999999999</v>
       </c>
       <c r="I10">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="J10">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N10">
         <v>3.522173</v>
       </c>
       <c r="O10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q10">
-        <v>3.846442639950111</v>
+        <v>3.84644263995011</v>
       </c>
       <c r="R10">
-        <v>34.617983759551</v>
+        <v>34.61798375955099</v>
       </c>
       <c r="S10">
-        <v>0.02822334947117494</v>
+        <v>0.04826201683063835</v>
       </c>
       <c r="T10">
-        <v>0.02822334947117494</v>
+        <v>0.04826201683063837</v>
       </c>
     </row>
   </sheetData>
